--- a/biology/Botanique/Santoline_à_feuilles_de_romarin/Santoline_à_feuilles_de_romarin.xlsx
+++ b/biology/Botanique/Santoline_à_feuilles_de_romarin/Santoline_à_feuilles_de_romarin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Santoline_%C3%A0_feuilles_de_romarin</t>
+          <t>Santoline_à_feuilles_de_romarin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Santolina rosmarinifolia
 La Santoline à feuilles de romarin (Santolina rosmarinifolia) est une espèce de plante à fleurs de la famille des Astéracées originaire du sud-ouest de l'Europe.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Santoline_%C3%A0_feuilles_de_romarin</t>
+          <t>Santoline_à_feuilles_de_romarin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée.
-Les feuilles sont divisées en lobes allongés et écartés, contrairement à ceux de la santoline petit-cyprès (Santolina chamaecyparissus), qui sont courts et compacts. Les fleurs sont jaunes et disposées au sommet de rameaux non feuillés[1].
+Les feuilles sont divisées en lobes allongés et écartés, contrairement à ceux de la santoline petit-cyprès (Santolina chamaecyparissus), qui sont courts et compacts. Les fleurs sont jaunes et disposées au sommet de rameaux non feuillés.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Santoline_%C3%A0_feuilles_de_romarin</t>
+          <t>Santoline_à_feuilles_de_romarin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, c'est une plante introduite, non naturalisée (elle est cultivée dans les parcs et jardins à titre ornemental).
 </t>
